--- a/backend/web/export_file/aeon-mobile_template.xlsx
+++ b/backend/web/export_file/aeon-mobile_template.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="BIAS">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sample!$A$1:$M$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">稼働報告書!$A$1:$M$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">稼働報告書!$A$1:$M$45</definedName>
   </definedNames>
   <calcPr calcId="125725" fullPrecision="0"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t xml:space="preserve">氏名      </t>
     <rPh sb="0" eb="2">
@@ -468,6 +468,10 @@
   </si>
   <si>
     <t>ハノイ開発センター</t>
+  </si>
+  <si>
+    <t>Truong Thi Thu Hoai</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>6月度 作業報告書（兼納品書）</t>
@@ -1363,15 +1367,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1380,21 +1375,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1414,23 +1399,36 @@
     <xf numFmtId="20" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1448,11 +1446,17 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -1519,7 +1523,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_勤怠" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1540,6 +1544,30 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor indexed="22"/>
         </patternFill>
       </fill>
@@ -1693,7 +1721,7 @@
         <xdr:cNvPr id="3704" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000780E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000780E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1748,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1749,7 +1777,7 @@
         <xdr:cNvPr id="3401" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000490D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000490D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1878,7 @@
         <xdr:cNvPr id="3706" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A0E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007A0E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1905,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1906,7 +1934,7 @@
         <xdr:cNvPr id="3707" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B0E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007B0E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1961,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1962,7 +1990,7 @@
         <xdr:cNvPr id="3404" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C0D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C0D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2229,7 @@
         <xdr:cNvPr id="3405" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D0D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D0D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2468,7 @@
         <xdr:cNvPr id="3710" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E0E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E0E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2495,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2496,7 +2524,7 @@
         <xdr:cNvPr id="3407" name="Rectangular Callout 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F0D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F0D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2625,7 @@
         <xdr:cNvPr id="3408" name="Rectangular Callout 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000500D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000500D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2710,7 @@
         <xdr:cNvPr id="3713" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000810E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000810E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2737,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2738,7 +2766,7 @@
         <xdr:cNvPr id="3714" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000820E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000820E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2793,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2794,7 +2822,7 @@
         <xdr:cNvPr id="3411" name="Rectangular Callout 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000530D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000530D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2907,7 @@
         <xdr:cNvPr id="3412" name="Rectangular Callout 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000540D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000540D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2992,7 @@
         <xdr:cNvPr id="3717" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000850E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000850E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +3019,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3020,7 +3048,7 @@
         <xdr:cNvPr id="3718" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000860E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000860E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3075,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3076,7 +3104,7 @@
         <xdr:cNvPr id="3415" name="Rectangular Callout 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000570D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000570D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3480,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3496,7 +3524,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3518,10 +3546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB228"/>
+  <dimension ref="A1:BB229"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="12"/>
@@ -3565,7 +3593,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="105">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="64"/>
@@ -3591,10 +3619,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="127" t="s">
+      <c r="J2" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="128"/>
+      <c r="K2" s="133"/>
       <c r="L2" s="87" t="s">
         <v>37</v>
       </c>
@@ -3607,11 +3635,11 @@
       <c r="S2" s="7">
         <v>0</v>
       </c>
-      <c r="T2" s="132" t="s">
+      <c r="T2" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
       <c r="W2" s="81">
         <v>0.52083333333333304</v>
       </c>
@@ -3639,11 +3667,11 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="4"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
       <c r="W3" s="82">
         <v>0.5625</v>
       </c>
@@ -3671,11 +3699,11 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="136" t="s">
+      <c r="T4" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
       <c r="W4" s="12">
         <f>W3-W2</f>
         <v>4.1666666666666997E-2</v>
@@ -3685,7 +3713,7 @@
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
@@ -3776,11 +3804,11 @@
       <c r="I7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="131" t="s">
+      <c r="J7" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
       <c r="M7" s="29"/>
       <c r="N7" s="68"/>
       <c r="O7" s="29"/>
@@ -3896,7 +3924,9 @@
       <c r="I9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="29"/>
@@ -3973,24 +4003,24 @@
     </row>
     <row r="11" spans="1:54" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="122" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="107"/>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="129" t="s">
+      <c r="I11" s="138"/>
+      <c r="J11" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="130"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="106" t="s">
         <v>49</v>
       </c>
@@ -4057,51 +4087,45 @@
         <v>1</v>
       </c>
       <c r="C12" s="108" t="str">
-        <f t="shared" ref="C12:C41" si="0">IF($B12="","",CHOOSE(WEEKDAY(DATE(YEAR($L$1),MONTH($L$1),$B12),2),"月","火","水","木","金","土","日"))</f>
-        <v>木</v>
-      </c>
-      <c r="D12" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E12" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="111">
-        <v>0.75</v>
-      </c>
+        <f t="shared" ref="C12:C42" si="0">IF($B12="","",CHOOSE(WEEKDAY(DATE(YEAR($L$1),MONTH($L$1),$B12),2),"月","火","水","木","金","土","日"))</f>
+        <v>土</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="112"/>
       <c r="H12" s="120"/>
       <c r="I12" s="121"/>
-      <c r="J12" s="46">
+      <c r="J12" s="46" t="str">
         <f>IF(F12="","",R12+S12-T12-U12-V12-W12)</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K12" s="47" t="str">
         <f>IF(J12="","","h")</f>
-        <v>h</v>
-      </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="126"/>
+        <v/>
+      </c>
+      <c r="L12" s="122"/>
+      <c r="M12" s="123"/>
       <c r="N12" s="64"/>
-      <c r="O12" s="48">
+      <c r="O12" s="48" t="str">
         <f>IF(F12="","",F12-D12)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P12" s="48">
+        <v/>
+      </c>
+      <c r="P12" s="48" t="str">
         <f>IF(F12="","",O12-Q12)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q12" s="49">
+        <v/>
+      </c>
+      <c r="Q12" s="49" t="str">
         <f>IF(F12="","",IF(D12&gt;=$W$3,$S$2,IF(F12&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R12" s="50">
+        <v/>
+      </c>
+      <c r="R12" s="50" t="str">
         <f>IF(F12="","",HOUR(P12))</f>
-        <v>8</v>
-      </c>
-      <c r="S12" s="51">
+        <v/>
+      </c>
+      <c r="S12" s="51" t="str">
         <f>IF(F12="","",(MINUTE(P12)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
@@ -4115,50 +4139,44 @@
       </c>
       <c r="C13" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
-      <c r="D13" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="111">
-        <v>0.75</v>
-      </c>
+        <v>日</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="112"/>
       <c r="H13" s="120"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="46">
+      <c r="J13" s="46" t="str">
         <f t="shared" ref="J13" si="1">IF(F13="","",R13+S13-T13-U13-V13-W13)</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K13" s="47" t="str">
         <f t="shared" ref="K13:K35" si="2">IF(J13="","","h")</f>
-        <v>h</v>
-      </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="126"/>
+        <v/>
+      </c>
+      <c r="L13" s="122"/>
+      <c r="M13" s="123"/>
       <c r="N13" s="64"/>
-      <c r="O13" s="48">
+      <c r="O13" s="48" t="str">
         <f>IF(F13="","",F13-D13)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P13" s="48">
+        <v/>
+      </c>
+      <c r="P13" s="48" t="str">
         <f>IF(F13="","",O13-Q13)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q13" s="49">
+        <v/>
+      </c>
+      <c r="Q13" s="49" t="str">
         <f>IF(F13="","",IF(D13&gt;=$W$3,$S$2,IF(F13&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R13" s="50">
+        <v/>
+      </c>
+      <c r="R13" s="50" t="str">
         <f>IF(F13="","",HOUR(P13))</f>
-        <v>8</v>
-      </c>
-      <c r="S13" s="51">
+        <v/>
+      </c>
+      <c r="S13" s="51" t="str">
         <f>IF(F13="","",(MINUTE(P13)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T13" s="52"/>
       <c r="U13" s="52"/>
@@ -4172,7 +4190,7 @@
       </c>
       <c r="C14" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="D14" s="109"/>
       <c r="E14" s="110"/>
@@ -4188,8 +4206,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="123"/>
       <c r="N14" s="64"/>
       <c r="O14" s="48" t="str">
         <f t="shared" ref="O14:O36" si="3">IF(F14="","",F14-D14)</f>
@@ -4223,7 +4241,7 @@
       </c>
       <c r="C15" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="D15" s="109"/>
       <c r="E15" s="110"/>
@@ -4239,8 +4257,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="126"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="123"/>
       <c r="N15" s="64"/>
       <c r="O15" s="48" t="str">
         <f>IF(F15="","",F15-D15)</f>
@@ -4274,50 +4292,44 @@
       </c>
       <c r="C16" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
-      <c r="D16" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="111">
-        <v>0.75</v>
-      </c>
+        <v>水</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="112"/>
       <c r="H16" s="120"/>
       <c r="I16" s="121"/>
-      <c r="J16" s="46">
+      <c r="J16" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K16" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
+        <v/>
+      </c>
+      <c r="L16" s="122"/>
+      <c r="M16" s="123"/>
       <c r="N16" s="64"/>
-      <c r="O16" s="48">
+      <c r="O16" s="48" t="str">
         <f>IF(F16="","",F16-D16)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P16" s="48">
+        <v/>
+      </c>
+      <c r="P16" s="48" t="str">
         <f>IF(F16="","",O16-Q16)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q16" s="49">
+        <v/>
+      </c>
+      <c r="Q16" s="49" t="str">
         <f>IF(F16="","",IF(D16&gt;=$W$3,$S$2,IF(F16&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R16" s="50">
+        <v/>
+      </c>
+      <c r="R16" s="50" t="str">
         <f>IF(F16="","",HOUR(P16))</f>
-        <v>8</v>
-      </c>
-      <c r="S16" s="51">
+        <v/>
+      </c>
+      <c r="S16" s="51" t="str">
         <f>IF(F16="","",(MINUTE(P16)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
@@ -4331,50 +4343,44 @@
       </c>
       <c r="C17" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
-      <c r="D17" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="111">
-        <v>0.75</v>
-      </c>
+        <v>木</v>
+      </c>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="112"/>
       <c r="H17" s="120"/>
       <c r="I17" s="121"/>
-      <c r="J17" s="46">
+      <c r="J17" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K17" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
+        <v/>
+      </c>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
       <c r="N17" s="64"/>
-      <c r="O17" s="48">
+      <c r="O17" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P17" s="48">
+        <v/>
+      </c>
+      <c r="P17" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q17" s="49">
+        <v/>
+      </c>
+      <c r="Q17" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R17" s="50">
+        <v/>
+      </c>
+      <c r="R17" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S17" s="51">
+        <v/>
+      </c>
+      <c r="S17" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
@@ -4388,50 +4394,44 @@
       </c>
       <c r="C18" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>水</v>
-      </c>
-      <c r="D18" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E18" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="111">
-        <v>0.75</v>
-      </c>
+        <v>金</v>
+      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="112"/>
       <c r="H18" s="120"/>
       <c r="I18" s="121"/>
-      <c r="J18" s="46">
+      <c r="J18" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K18" s="47" t="str">
         <f>IF(J18="","","h")</f>
-        <v>h</v>
-      </c>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
+        <v/>
+      </c>
+      <c r="L18" s="122"/>
+      <c r="M18" s="123"/>
       <c r="N18" s="64"/>
-      <c r="O18" s="48">
+      <c r="O18" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P18" s="48">
+        <v/>
+      </c>
+      <c r="P18" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q18" s="49">
+        <v/>
+      </c>
+      <c r="Q18" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R18" s="50">
+        <v/>
+      </c>
+      <c r="R18" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S18" s="51">
+        <v/>
+      </c>
+      <c r="S18" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T18" s="52"/>
       <c r="U18" s="52"/>
@@ -4445,50 +4445,44 @@
       </c>
       <c r="C19" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
-      <c r="D19" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E19" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="111">
-        <v>0.75</v>
-      </c>
+        <v>土</v>
+      </c>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="112"/>
       <c r="H19" s="120"/>
       <c r="I19" s="121"/>
-      <c r="J19" s="46">
+      <c r="J19" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K19" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
+        <v/>
+      </c>
+      <c r="L19" s="122"/>
+      <c r="M19" s="123"/>
       <c r="N19" s="64"/>
-      <c r="O19" s="48">
+      <c r="O19" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P19" s="48">
+        <v/>
+      </c>
+      <c r="P19" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q19" s="49">
+        <v/>
+      </c>
+      <c r="Q19" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R19" s="50">
+        <v/>
+      </c>
+      <c r="R19" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S19" s="51">
+        <v/>
+      </c>
+      <c r="S19" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T19" s="52"/>
       <c r="U19" s="52"/>
@@ -4502,50 +4496,44 @@
       </c>
       <c r="C20" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
-      <c r="D20" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="111">
-        <v>0.75</v>
-      </c>
+        <v>日</v>
+      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="112"/>
       <c r="H20" s="120"/>
       <c r="I20" s="121"/>
-      <c r="J20" s="46">
+      <c r="J20" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K20" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
+        <v/>
+      </c>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="64"/>
-      <c r="O20" s="48">
+      <c r="O20" s="48" t="str">
         <f>IF(F20="","",F20-D20)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P20" s="48">
+        <v/>
+      </c>
+      <c r="P20" s="48" t="str">
         <f>IF(F20="","",O20-Q20)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q20" s="49">
+        <v/>
+      </c>
+      <c r="Q20" s="49" t="str">
         <f>IF(F20="","",IF(D20&gt;=$W$3,$S$2,IF(F20&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R20" s="50">
+        <v/>
+      </c>
+      <c r="R20" s="50" t="str">
         <f>IF(F20="","",HOUR(P20))</f>
-        <v>8</v>
-      </c>
-      <c r="S20" s="51">
+        <v/>
+      </c>
+      <c r="S20" s="51" t="str">
         <f>IF(F20="","",(MINUTE(P20)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T20" s="52"/>
       <c r="U20" s="52"/>
@@ -4559,7 +4547,7 @@
       </c>
       <c r="C21" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="D21" s="109"/>
       <c r="E21" s="110"/>
@@ -4575,8 +4563,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="64"/>
       <c r="O21" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4610,7 +4598,7 @@
       </c>
       <c r="C22" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="D22" s="109"/>
       <c r="E22" s="110"/>
@@ -4626,8 +4614,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="123"/>
       <c r="N22" s="64"/>
       <c r="O22" s="48" t="str">
         <f>IF(F22="","",F22-D22)</f>
@@ -4654,57 +4642,51 @@
       <c r="V22" s="52"/>
       <c r="W22" s="52"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23">
       <c r="A23" s="3"/>
       <c r="B23" s="41">
         <v>12</v>
       </c>
       <c r="C23" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
-      <c r="D23" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E23" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="111">
-        <v>0.75</v>
-      </c>
+        <v>水</v>
+      </c>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="112"/>
       <c r="H23" s="120"/>
       <c r="I23" s="121"/>
-      <c r="J23" s="46">
+      <c r="J23" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K23" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
+        <v/>
+      </c>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
       <c r="N23" s="64"/>
-      <c r="O23" s="48">
+      <c r="O23" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P23" s="48">
+        <v/>
+      </c>
+      <c r="P23" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q23" s="49">
+        <v/>
+      </c>
+      <c r="Q23" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R23" s="50">
+        <v/>
+      </c>
+      <c r="R23" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S23" s="51">
+        <v/>
+      </c>
+      <c r="S23" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T23" s="52"/>
       <c r="U23" s="52"/>
@@ -4718,50 +4700,44 @@
       </c>
       <c r="C24" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
-      <c r="D24" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="111">
-        <v>0.75</v>
-      </c>
+        <v>木</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="112"/>
       <c r="H24" s="120"/>
       <c r="I24" s="121"/>
-      <c r="J24" s="46">
+      <c r="J24" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K24" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
+        <v/>
+      </c>
+      <c r="L24" s="122"/>
+      <c r="M24" s="123"/>
       <c r="N24" s="64"/>
-      <c r="O24" s="48">
+      <c r="O24" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P24" s="48">
+        <v/>
+      </c>
+      <c r="P24" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q24" s="49">
+        <v/>
+      </c>
+      <c r="Q24" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R24" s="50">
+        <v/>
+      </c>
+      <c r="R24" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S24" s="51">
+        <v/>
+      </c>
+      <c r="S24" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T24" s="52"/>
       <c r="U24" s="52"/>
@@ -4775,50 +4751,44 @@
       </c>
       <c r="C25" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>水</v>
-      </c>
-      <c r="D25" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E25" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="111">
-        <v>0.75</v>
-      </c>
+        <v>金</v>
+      </c>
+      <c r="D25" s="109"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="112"/>
       <c r="H25" s="120"/>
       <c r="I25" s="121"/>
-      <c r="J25" s="46">
+      <c r="J25" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K25" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
+        <v/>
+      </c>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
       <c r="N25" s="64"/>
-      <c r="O25" s="48">
+      <c r="O25" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P25" s="48">
+        <v/>
+      </c>
+      <c r="P25" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q25" s="49">
+        <v/>
+      </c>
+      <c r="Q25" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R25" s="50">
+        <v/>
+      </c>
+      <c r="R25" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S25" s="51">
+        <v/>
+      </c>
+      <c r="S25" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T25" s="52"/>
       <c r="U25" s="52"/>
@@ -4832,50 +4802,44 @@
       </c>
       <c r="C26" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
-      <c r="D26" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E26" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="111">
-        <v>0.75</v>
-      </c>
+        <v>土</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="112"/>
       <c r="H26" s="120"/>
       <c r="I26" s="121"/>
-      <c r="J26" s="46">
+      <c r="J26" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K26" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
+        <v/>
+      </c>
+      <c r="L26" s="122"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="48">
+      <c r="O26" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P26" s="48">
+        <v/>
+      </c>
+      <c r="P26" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q26" s="49">
+        <v/>
+      </c>
+      <c r="Q26" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R26" s="50">
+        <v/>
+      </c>
+      <c r="R26" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S26" s="51">
+        <v/>
+      </c>
+      <c r="S26" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
@@ -4889,50 +4853,44 @@
       </c>
       <c r="C27" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
-      <c r="D27" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E27" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="111">
-        <v>0.75</v>
-      </c>
+        <v>日</v>
+      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="112"/>
       <c r="H27" s="120"/>
       <c r="I27" s="121"/>
-      <c r="J27" s="46">
+      <c r="J27" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K27" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
+        <v/>
+      </c>
+      <c r="L27" s="122"/>
+      <c r="M27" s="123"/>
       <c r="N27" s="64"/>
-      <c r="O27" s="48">
+      <c r="O27" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P27" s="48">
+        <v/>
+      </c>
+      <c r="P27" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q27" s="49">
+        <v/>
+      </c>
+      <c r="Q27" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R27" s="50">
+        <v/>
+      </c>
+      <c r="R27" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S27" s="51">
+        <v/>
+      </c>
+      <c r="S27" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T27" s="52"/>
       <c r="U27" s="52"/>
@@ -4946,7 +4904,7 @@
       </c>
       <c r="C28" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="D28" s="109"/>
       <c r="E28" s="110"/>
@@ -4962,8 +4920,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="64"/>
       <c r="O28" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4997,7 +4955,7 @@
       </c>
       <c r="C29" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="D29" s="109"/>
       <c r="E29" s="110"/>
@@ -5013,8 +4971,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="64"/>
       <c r="O29" s="48" t="str">
         <f t="shared" si="3"/>
@@ -5048,278 +5006,248 @@
       </c>
       <c r="C30" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
-      <c r="D30" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E30" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="111">
-        <v>0.75</v>
-      </c>
+        <v>水</v>
+      </c>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="112"/>
       <c r="H30" s="120"/>
       <c r="I30" s="121"/>
-      <c r="J30" s="46">
+      <c r="J30" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K30" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
+        <v/>
+      </c>
+      <c r="L30" s="122"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="64"/>
-      <c r="O30" s="48">
+      <c r="O30" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P30" s="48">
+        <v/>
+      </c>
+      <c r="P30" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q30" s="49">
+        <v/>
+      </c>
+      <c r="Q30" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R30" s="50">
+        <v/>
+      </c>
+      <c r="R30" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S30" s="51">
+        <v/>
+      </c>
+      <c r="S30" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T30" s="52"/>
       <c r="U30" s="52"/>
       <c r="V30" s="52"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="1:23" ht="32.25" customHeight="1">
+    <row r="31" spans="1:23">
       <c r="A31" s="3"/>
       <c r="B31" s="41">
         <v>20</v>
       </c>
       <c r="C31" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
-      <c r="D31" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E31" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="111">
-        <v>0.75</v>
-      </c>
+        <v>木</v>
+      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="112"/>
       <c r="H31" s="120"/>
       <c r="I31" s="121"/>
-      <c r="J31" s="46">
+      <c r="J31" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K31" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+        <v/>
+      </c>
+      <c r="L31" s="122"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="64"/>
-      <c r="O31" s="48">
+      <c r="O31" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P31" s="48">
+        <v/>
+      </c>
+      <c r="P31" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q31" s="49">
+        <v/>
+      </c>
+      <c r="Q31" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R31" s="50">
+        <v/>
+      </c>
+      <c r="R31" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S31" s="51">
+        <v/>
+      </c>
+      <c r="S31" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T31" s="52"/>
       <c r="U31" s="52"/>
       <c r="V31" s="52"/>
       <c r="W31" s="52"/>
     </row>
-    <row r="32" spans="1:23" ht="24" customHeight="1">
+    <row r="32" spans="1:23">
       <c r="A32" s="3"/>
       <c r="B32" s="41">
         <v>21</v>
       </c>
       <c r="C32" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>水</v>
-      </c>
-      <c r="D32" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E32" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="111">
-        <v>0.75</v>
-      </c>
+        <v>金</v>
+      </c>
+      <c r="D32" s="109"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="112"/>
       <c r="H32" s="120"/>
       <c r="I32" s="121"/>
-      <c r="J32" s="46">
+      <c r="J32" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K32" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+        <v/>
+      </c>
+      <c r="L32" s="122"/>
+      <c r="M32" s="123"/>
       <c r="N32" s="64"/>
-      <c r="O32" s="48">
+      <c r="O32" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P32" s="48">
+        <v/>
+      </c>
+      <c r="P32" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q32" s="49">
+        <v/>
+      </c>
+      <c r="Q32" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R32" s="50">
+        <v/>
+      </c>
+      <c r="R32" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S32" s="51">
+        <v/>
+      </c>
+      <c r="S32" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T32" s="52"/>
       <c r="U32" s="52"/>
       <c r="V32" s="52"/>
       <c r="W32" s="52"/>
     </row>
-    <row r="33" spans="1:54" ht="30" customHeight="1">
+    <row r="33" spans="1:54">
       <c r="A33" s="3"/>
       <c r="B33" s="41">
         <v>22</v>
       </c>
       <c r="C33" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
-      <c r="D33" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E33" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="111">
-        <v>0.75</v>
-      </c>
+        <v>土</v>
+      </c>
+      <c r="D33" s="109"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="112"/>
       <c r="H33" s="120"/>
       <c r="I33" s="121"/>
-      <c r="J33" s="46">
+      <c r="J33" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K33" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+        <v/>
+      </c>
+      <c r="L33" s="122"/>
+      <c r="M33" s="123"/>
       <c r="N33" s="64"/>
-      <c r="O33" s="48">
+      <c r="O33" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P33" s="48">
+        <v/>
+      </c>
+      <c r="P33" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q33" s="49">
+        <v/>
+      </c>
+      <c r="Q33" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R33" s="50">
+        <v/>
+      </c>
+      <c r="R33" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S33" s="51">
+        <v/>
+      </c>
+      <c r="S33" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T33" s="52"/>
       <c r="U33" s="52"/>
       <c r="V33" s="52"/>
       <c r="W33" s="52"/>
     </row>
-    <row r="34" spans="1:54" ht="35.25" customHeight="1">
+    <row r="34" spans="1:54">
       <c r="A34" s="3"/>
       <c r="B34" s="41">
         <v>23</v>
       </c>
       <c r="C34" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
-      <c r="D34" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E34" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="111">
-        <v>0.75</v>
-      </c>
+        <v>日</v>
+      </c>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="112"/>
       <c r="H34" s="120"/>
       <c r="I34" s="121"/>
-      <c r="J34" s="46">
+      <c r="J34" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K34" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L34" s="125"/>
-      <c r="M34" s="126"/>
+        <v/>
+      </c>
+      <c r="L34" s="122"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="64"/>
-      <c r="O34" s="48">
+      <c r="O34" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P34" s="48">
+        <v/>
+      </c>
+      <c r="P34" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q34" s="49">
+        <v/>
+      </c>
+      <c r="Q34" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R34" s="50">
+        <v/>
+      </c>
+      <c r="R34" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S34" s="51">
+        <v/>
+      </c>
+      <c r="S34" s="51" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T34" s="52"/>
       <c r="U34" s="52"/>
@@ -5333,7 +5261,7 @@
       </c>
       <c r="C35" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="D35" s="109"/>
       <c r="E35" s="110"/>
@@ -5349,8 +5277,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="123"/>
       <c r="N35" s="64"/>
       <c r="O35" s="48" t="str">
         <f t="shared" si="3"/>
@@ -5384,7 +5312,7 @@
       </c>
       <c r="C36" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="D36" s="109"/>
       <c r="E36" s="110"/>
@@ -5397,11 +5325,11 @@
         <v/>
       </c>
       <c r="K36" s="47" t="str">
-        <f t="shared" ref="K36:K41" si="9">IF(J36="","","h")</f>
-        <v/>
-      </c>
-      <c r="L36" s="125"/>
-      <c r="M36" s="126"/>
+        <f t="shared" ref="K36:K42" si="9">IF(J36="","","h")</f>
+        <v/>
+      </c>
+      <c r="L36" s="122"/>
+      <c r="M36" s="123"/>
       <c r="N36" s="64"/>
       <c r="O36" s="48" t="str">
         <f t="shared" si="3"/>
@@ -5435,50 +5363,44 @@
       </c>
       <c r="C37" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
-      <c r="D37" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E37" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="111">
-        <v>0.75</v>
-      </c>
+        <v>水</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="112"/>
       <c r="H37" s="120"/>
       <c r="I37" s="121"/>
-      <c r="J37" s="46">
+      <c r="J37" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K37" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
+        <v/>
+      </c>
+      <c r="L37" s="122"/>
+      <c r="M37" s="123"/>
       <c r="N37" s="64"/>
-      <c r="O37" s="48">
-        <f t="shared" ref="O37:O41" si="10">IF(F37="","",F37-D37)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P37" s="48">
-        <f t="shared" ref="P37:P41" si="11">IF(F37="","",O37-Q37)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q37" s="49">
-        <f t="shared" ref="Q37:Q41" si="12">IF(F37="","",IF(D37&gt;=$W$3,$S$2,IF(F37&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R37" s="50">
-        <f t="shared" ref="R37:R41" si="13">IF(F37="","",HOUR(P37))</f>
-        <v>8</v>
-      </c>
-      <c r="S37" s="51">
-        <f t="shared" ref="S37:S41" si="14">IF(F37="","",(MINUTE(P37)/60))</f>
-        <v>0</v>
+      <c r="O37" s="48" t="str">
+        <f t="shared" ref="O37:O42" si="10">IF(F37="","",F37-D37)</f>
+        <v/>
+      </c>
+      <c r="P37" s="48" t="str">
+        <f t="shared" ref="P37:P42" si="11">IF(F37="","",O37-Q37)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="49" t="str">
+        <f t="shared" ref="Q37:Q42" si="12">IF(F37="","",IF(D37&gt;=$W$3,$S$2,IF(F37&lt;=$W$2,$S$2,$W$4)))</f>
+        <v/>
+      </c>
+      <c r="R37" s="50" t="str">
+        <f t="shared" ref="R37:R42" si="13">IF(F37="","",HOUR(P37))</f>
+        <v/>
+      </c>
+      <c r="S37" s="51" t="str">
+        <f t="shared" ref="S37:S42" si="14">IF(F37="","",(MINUTE(P37)/60))</f>
+        <v/>
       </c>
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
@@ -5492,107 +5414,95 @@
       </c>
       <c r="C38" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
-      <c r="D38" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E38" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="111">
-        <v>0.75</v>
-      </c>
+        <v>木</v>
+      </c>
+      <c r="D38" s="109"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="112"/>
       <c r="H38" s="120"/>
       <c r="I38" s="121"/>
-      <c r="J38" s="46">
+      <c r="J38" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K38" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L38" s="125"/>
-      <c r="M38" s="126"/>
+        <v/>
+      </c>
+      <c r="L38" s="122"/>
+      <c r="M38" s="123"/>
       <c r="N38" s="64"/>
-      <c r="O38" s="48">
+      <c r="O38" s="48" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P38" s="48">
+        <v/>
+      </c>
+      <c r="P38" s="48" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q38" s="49">
+        <v/>
+      </c>
+      <c r="Q38" s="49" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R38" s="50">
+        <v/>
+      </c>
+      <c r="R38" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S38" s="51">
+        <v/>
+      </c>
+      <c r="S38" s="51" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T38" s="52"/>
       <c r="U38" s="52"/>
       <c r="V38" s="52"/>
       <c r="W38" s="52"/>
     </row>
-    <row r="39" spans="1:54" ht="22.5" customHeight="1">
+    <row r="39" spans="1:54">
       <c r="A39" s="3"/>
       <c r="B39" s="41">
         <v>28</v>
       </c>
       <c r="C39" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>水</v>
-      </c>
-      <c r="D39" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E39" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="111">
-        <v>0.75</v>
-      </c>
+        <v>金</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="112"/>
       <c r="H39" s="120"/>
       <c r="I39" s="121"/>
-      <c r="J39" s="46">
+      <c r="J39" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K39" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L39" s="125"/>
-      <c r="M39" s="126"/>
+        <v/>
+      </c>
+      <c r="L39" s="122"/>
+      <c r="M39" s="123"/>
       <c r="N39" s="64"/>
-      <c r="O39" s="48">
+      <c r="O39" s="48" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P39" s="48">
+        <v/>
+      </c>
+      <c r="P39" s="48" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q39" s="49">
+        <v/>
+      </c>
+      <c r="Q39" s="49" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R39" s="50">
+        <v/>
+      </c>
+      <c r="R39" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S39" s="51">
+        <v/>
+      </c>
+      <c r="S39" s="51" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T39" s="52"/>
       <c r="U39" s="52"/>
@@ -5606,50 +5516,44 @@
       </c>
       <c r="C40" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
-      <c r="D40" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E40" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="111">
-        <v>0.75</v>
-      </c>
+        <v>土</v>
+      </c>
+      <c r="D40" s="109"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="112"/>
       <c r="H40" s="120"/>
       <c r="I40" s="121"/>
-      <c r="J40" s="46">
+      <c r="J40" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K40" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
+        <v/>
       </c>
       <c r="L40" s="113"/>
       <c r="M40" s="114"/>
       <c r="N40" s="64"/>
-      <c r="O40" s="48">
+      <c r="O40" s="48" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P40" s="48">
+        <v/>
+      </c>
+      <c r="P40" s="48" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q40" s="49">
+        <v/>
+      </c>
+      <c r="Q40" s="49" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R40" s="50">
+        <v/>
+      </c>
+      <c r="R40" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S40" s="51">
+        <v/>
+      </c>
+      <c r="S40" s="51" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
@@ -5663,149 +5567,187 @@
       </c>
       <c r="C41" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
-      <c r="D41" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E41" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="111">
-        <v>0.75</v>
-      </c>
+        <v>日</v>
+      </c>
+      <c r="D41" s="109"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="112"/>
       <c r="H41" s="120"/>
       <c r="I41" s="121"/>
-      <c r="J41" s="46">
+      <c r="J41" s="46" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="K41" s="47" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="126"/>
+        <v/>
+      </c>
+      <c r="L41" s="122"/>
+      <c r="M41" s="123"/>
       <c r="N41" s="64"/>
-      <c r="O41" s="48">
+      <c r="O41" s="48" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P41" s="48">
+        <v/>
+      </c>
+      <c r="P41" s="48" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q41" s="49">
+        <v/>
+      </c>
+      <c r="Q41" s="49" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R41" s="50">
+        <v/>
+      </c>
+      <c r="R41" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S41" s="51">
+        <v/>
+      </c>
+      <c r="S41" s="51" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T41" s="52"/>
       <c r="U41" s="52"/>
       <c r="V41" s="52"/>
       <c r="W41" s="52"/>
     </row>
-    <row r="42" spans="1:54" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="117" t="str">
-        <f>CONCATENATE("作業日数  ",COUNTA(D12:D41)," 日")</f>
-        <v>作業日数  22 日</v>
-      </c>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="118"/>
-      <c r="J42" s="119"/>
+    <row r="42" spans="1:54">
+      <c r="A42" s="3"/>
+      <c r="B42" s="41">
+        <v>31</v>
+      </c>
+      <c r="C42" s="108" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D42" s="109"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="46" t="str">
+        <f t="shared" ref="J42" si="15">IF(F42="","",R42+S42-T42-U42-V42-W42)</f>
+        <v/>
+      </c>
       <c r="K42" s="47" t="str">
-        <f>IF(J42="","","h")</f>
-        <v/>
-      </c>
-      <c r="L42" s="138"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="71"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L42" s="122"/>
+      <c r="M42" s="123"/>
+      <c r="N42" s="64"/>
       <c r="O42" s="48" t="str">
-        <f t="shared" ref="O42" si="15">IF(F42="","",F42-D42)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P42" s="48" t="str">
-        <f t="shared" ref="P42" si="16">IF(F42="","",O42-Q42)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q42" s="49" t="str">
-        <f t="shared" ref="Q42" si="17">IF(F42="","",IF(D42&gt;=$W$3,$S$2,IF(F42&lt;=$W$2,$S$2,$W$4)))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R42" s="50" t="str">
-        <f t="shared" ref="R42" si="18">IF(F42="","",HOUR(P42))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S42" s="51" t="str">
-        <f t="shared" ref="S42" si="19">IF(F42="","",(MINUTE(P42)/60))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="T42" s="52"/>
       <c r="U42" s="52"/>
       <c r="V42" s="52"/>
       <c r="W42" s="52"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="72"/>
-      <c r="AI42" s="72"/>
-      <c r="AJ42" s="72"/>
-      <c r="AK42" s="72"/>
-      <c r="AL42" s="72"/>
-      <c r="AM42" s="72"/>
-      <c r="AN42" s="72"/>
-      <c r="AO42" s="72"/>
-      <c r="AP42" s="72"/>
-      <c r="AQ42" s="72"/>
-      <c r="AR42" s="72"/>
-      <c r="AS42" s="72"/>
-      <c r="AT42" s="72"/>
-      <c r="AU42" s="72"/>
-      <c r="AV42" s="72"/>
-      <c r="AW42" s="72"/>
-      <c r="AX42" s="72"/>
-      <c r="AY42" s="72"/>
-      <c r="AZ42" s="72"/>
-      <c r="BA42" s="72"/>
-      <c r="BB42" s="72"/>
-    </row>
-    <row r="43" spans="1:54" ht="17.25" customHeight="1">
-      <c r="L43" s="62" t="s">
+    </row>
+    <row r="43" spans="1:54" s="56" customFormat="1" ht="18" customHeight="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117" t="str">
+        <f>CONCATENATE("作業日数  ",COUNTA(D12:D41)," 日")</f>
+        <v>作業日数  0 日</v>
+      </c>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="118"/>
+      <c r="J43" s="119">
+        <f>SUM(J12:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="47" t="str">
+        <f>IF(J43="","","h")</f>
+        <v>h</v>
+      </c>
+      <c r="L43" s="124"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="48" t="str">
+        <f t="shared" ref="O43" si="16">IF(F43="","",F43-D43)</f>
+        <v/>
+      </c>
+      <c r="P43" s="48" t="str">
+        <f t="shared" ref="P43" si="17">IF(F43="","",O43-Q43)</f>
+        <v/>
+      </c>
+      <c r="Q43" s="49" t="str">
+        <f t="shared" ref="Q43" si="18">IF(F43="","",IF(D43&gt;=$W$3,$S$2,IF(F43&lt;=$W$2,$S$2,$W$4)))</f>
+        <v/>
+      </c>
+      <c r="R43" s="50" t="str">
+        <f t="shared" ref="R43" si="19">IF(F43="","",HOUR(P43))</f>
+        <v/>
+      </c>
+      <c r="S43" s="51" t="str">
+        <f t="shared" ref="S43" si="20">IF(F43="","",(MINUTE(P43)/60))</f>
+        <v/>
+      </c>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="72"/>
+      <c r="AE43" s="72"/>
+      <c r="AF43" s="72"/>
+      <c r="AG43" s="72"/>
+      <c r="AH43" s="72"/>
+      <c r="AI43" s="72"/>
+      <c r="AJ43" s="72"/>
+      <c r="AK43" s="72"/>
+      <c r="AL43" s="72"/>
+      <c r="AM43" s="72"/>
+      <c r="AN43" s="72"/>
+      <c r="AO43" s="72"/>
+      <c r="AP43" s="72"/>
+      <c r="AQ43" s="72"/>
+      <c r="AR43" s="72"/>
+      <c r="AS43" s="72"/>
+      <c r="AT43" s="72"/>
+      <c r="AU43" s="72"/>
+      <c r="AV43" s="72"/>
+      <c r="AW43" s="72"/>
+      <c r="AX43" s="72"/>
+      <c r="AY43" s="72"/>
+      <c r="AZ43" s="72"/>
+      <c r="BA43" s="72"/>
+      <c r="BB43" s="72"/>
+    </row>
+    <row r="44" spans="1:54" ht="17.25" customHeight="1">
+      <c r="L44" s="62" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:54" s="65" customFormat="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="H45" s="74"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="Q45" s="76"/>
-      <c r="S45" s="77"/>
     </row>
     <row r="46" spans="1:54" s="65" customFormat="1">
       <c r="A46" s="73"/>
@@ -5827,24 +5769,14 @@
       <c r="Q47" s="76"/>
       <c r="S47" s="77"/>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" s="65" customFormat="1">
       <c r="A48" s="73"/>
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
       <c r="H48" s="74"/>
-      <c r="I48" s="65"/>
       <c r="J48" s="75"/>
       <c r="K48" s="75"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
       <c r="Q48" s="76"/>
-      <c r="R48" s="65"/>
       <c r="S48" s="77"/>
     </row>
     <row r="49" spans="1:19">
@@ -9447,19 +9379,70 @@
       <c r="R228" s="65"/>
       <c r="S228" s="77"/>
     </row>
+    <row r="229" spans="1:19">
+      <c r="A229" s="73"/>
+      <c r="B229" s="73"/>
+      <c r="C229" s="73"/>
+      <c r="D229" s="65"/>
+      <c r="E229" s="65"/>
+      <c r="F229" s="65"/>
+      <c r="G229" s="65"/>
+      <c r="H229" s="74"/>
+      <c r="I229" s="65"/>
+      <c r="J229" s="75"/>
+      <c r="K229" s="75"/>
+      <c r="L229" s="65"/>
+      <c r="M229" s="65"/>
+      <c r="O229" s="65"/>
+      <c r="P229" s="65"/>
+      <c r="Q229" s="76"/>
+      <c r="R229" s="65"/>
+      <c r="S229" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L35:M35"/>
+  <mergeCells count="71">
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T4:V4"/>
@@ -9476,51 +9459,30 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="C12:C33 C37:C41">
+  <conditionalFormatting sqref="C12:C33 C37:C42">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"土"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"日"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
@@ -9528,7 +9490,7 @@
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
+  <conditionalFormatting sqref="C42">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
@@ -9622,10 +9584,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="141"/>
+      <c r="K2" s="147"/>
       <c r="L2" s="87" t="s">
         <v>11</v>
       </c>
@@ -9638,11 +9600,11 @@
       <c r="S2" s="7">
         <v>0</v>
       </c>
-      <c r="T2" s="132" t="s">
+      <c r="T2" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
       <c r="W2" s="81">
         <v>0.5</v>
       </c>
@@ -9670,11 +9632,11 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="4"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
       <c r="W3" s="82">
         <v>0.54166666666666696</v>
       </c>
@@ -9702,11 +9664,11 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="136" t="s">
+      <c r="T4" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
       <c r="W4" s="12">
         <f>W3-W2</f>
         <v>4.1666666666666997E-2</v>
@@ -10007,24 +9969,24 @@
     </row>
     <row r="11" spans="1:54" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="142" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="142" t="s">
+      <c r="H11" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="143" t="s">
+      <c r="I11" s="138"/>
+      <c r="J11" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="130"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="104" t="s">
         <v>35</v>
       </c>
@@ -10098,8 +10060,8 @@
       <c r="E12" s="86"/>
       <c r="F12" s="95"/>
       <c r="G12" s="85"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="145"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="46" t="str">
         <f t="shared" ref="J12:J38" si="1">IF(F12="","",R12+S12-T12-U12-V12-W12)</f>
         <v/>
@@ -10108,8 +10070,8 @@
         <f t="shared" ref="K12:K42" si="2">IF(J12="","","h")</f>
         <v/>
       </c>
-      <c r="L12" s="146"/>
-      <c r="M12" s="147"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
       <c r="N12" s="64"/>
       <c r="O12" s="48" t="str">
         <f t="shared" ref="O12:O41" si="3">IF(F12="","",F12-D12)</f>
@@ -10149,8 +10111,8 @@
       <c r="E13" s="86"/>
       <c r="F13" s="95"/>
       <c r="G13" s="85"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10159,8 +10121,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="146"/>
-      <c r="M13" s="147"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145"/>
       <c r="N13" s="64"/>
       <c r="O13" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10206,10 +10168,10 @@
         <v>0.75</v>
       </c>
       <c r="G14" s="85"/>
-      <c r="H14" s="144" t="s">
+      <c r="H14" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10218,8 +10180,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
       <c r="N14" s="64"/>
       <c r="O14" s="48">
         <f t="shared" si="3"/>
@@ -10265,10 +10227,10 @@
         <v>0.75</v>
       </c>
       <c r="G15" s="85"/>
-      <c r="H15" s="144" t="s">
+      <c r="H15" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="145"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10277,8 +10239,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="145"/>
       <c r="N15" s="64"/>
       <c r="O15" s="48">
         <f t="shared" si="3"/>
@@ -10324,10 +10286,10 @@
         <v>0.75</v>
       </c>
       <c r="G16" s="85"/>
-      <c r="H16" s="144" t="s">
+      <c r="H16" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="145"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10336,8 +10298,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L16" s="146"/>
-      <c r="M16" s="147"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="145"/>
       <c r="N16" s="64"/>
       <c r="O16" s="48">
         <f t="shared" si="3"/>
@@ -10383,10 +10345,10 @@
         <v>0.75</v>
       </c>
       <c r="G17" s="85"/>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="145"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10395,8 +10357,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="145"/>
       <c r="N17" s="64"/>
       <c r="O17" s="48">
         <f t="shared" si="3"/>
@@ -10442,10 +10404,10 @@
         <v>0.75</v>
       </c>
       <c r="G18" s="85"/>
-      <c r="H18" s="144" t="s">
+      <c r="H18" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="145"/>
+      <c r="I18" s="143"/>
       <c r="J18" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10454,8 +10416,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
       <c r="N18" s="64"/>
       <c r="O18" s="48">
         <f t="shared" si="3"/>
@@ -10495,8 +10457,8 @@
       <c r="E19" s="86"/>
       <c r="F19" s="95"/>
       <c r="G19" s="85"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10505,8 +10467,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145"/>
       <c r="N19" s="64"/>
       <c r="O19" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10546,8 +10508,8 @@
       <c r="E20" s="86"/>
       <c r="F20" s="95"/>
       <c r="G20" s="85"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
       <c r="J20" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10556,8 +10518,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="146"/>
-      <c r="M20" s="147"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="64"/>
       <c r="O20" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10603,10 +10565,10 @@
         <v>0.75</v>
       </c>
       <c r="G21" s="85"/>
-      <c r="H21" s="144" t="s">
+      <c r="H21" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="145"/>
+      <c r="I21" s="143"/>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10615,8 +10577,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L21" s="146"/>
-      <c r="M21" s="147"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="145"/>
       <c r="N21" s="64"/>
       <c r="O21" s="48">
         <f t="shared" si="3"/>
@@ -10662,10 +10624,10 @@
         <v>0.75</v>
       </c>
       <c r="G22" s="85"/>
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="145"/>
+      <c r="I22" s="143"/>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10674,8 +10636,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L22" s="146"/>
-      <c r="M22" s="147"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145"/>
       <c r="N22" s="64"/>
       <c r="O22" s="48">
         <f t="shared" si="3"/>
@@ -10721,10 +10683,10 @@
         <v>0.75</v>
       </c>
       <c r="G23" s="85"/>
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="145"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10733,8 +10695,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L23" s="146"/>
-      <c r="M23" s="147"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="64"/>
       <c r="O23" s="48">
         <f t="shared" si="3"/>
@@ -10780,10 +10742,10 @@
         <v>0.75</v>
       </c>
       <c r="G24" s="85"/>
-      <c r="H24" s="144" t="s">
+      <c r="H24" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="145"/>
+      <c r="I24" s="143"/>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10792,8 +10754,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L24" s="146"/>
-      <c r="M24" s="147"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="64"/>
       <c r="O24" s="48">
         <f t="shared" si="3"/>
@@ -10839,10 +10801,10 @@
         <v>0.75</v>
       </c>
       <c r="G25" s="85"/>
-      <c r="H25" s="144" t="s">
+      <c r="H25" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="145"/>
+      <c r="I25" s="143"/>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10851,8 +10813,8 @@
         <f>IF(J25="","","h")</f>
         <v>h</v>
       </c>
-      <c r="L25" s="146"/>
-      <c r="M25" s="147"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="64"/>
       <c r="O25" s="48">
         <f t="shared" si="3"/>
@@ -10892,8 +10854,8 @@
       <c r="E26" s="86"/>
       <c r="F26" s="95"/>
       <c r="G26" s="85"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="145"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10902,8 +10864,8 @@
         <f>IF(J26="","","h")</f>
         <v/>
       </c>
-      <c r="L26" s="146"/>
-      <c r="M26" s="147"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145"/>
       <c r="N26" s="64"/>
       <c r="O26" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10943,8 +10905,8 @@
       <c r="E27" s="86"/>
       <c r="F27" s="95"/>
       <c r="G27" s="85"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="145"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10953,8 +10915,8 @@
         <f>IF(J27="","","h")</f>
         <v/>
       </c>
-      <c r="L27" s="146"/>
-      <c r="M27" s="147"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="145"/>
       <c r="N27" s="64"/>
       <c r="O27" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11000,10 +10962,10 @@
         <v>0.75</v>
       </c>
       <c r="G28" s="85"/>
-      <c r="H28" s="144" t="s">
+      <c r="H28" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11012,8 +10974,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145"/>
       <c r="N28" s="64"/>
       <c r="O28" s="48">
         <f t="shared" si="3"/>
@@ -11059,10 +11021,10 @@
         <v>0.75</v>
       </c>
       <c r="G29" s="85"/>
-      <c r="H29" s="144" t="s">
+      <c r="H29" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="143"/>
       <c r="J29" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11071,8 +11033,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L29" s="146"/>
-      <c r="M29" s="147"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="145"/>
       <c r="N29" s="64"/>
       <c r="O29" s="48">
         <f t="shared" si="3"/>
@@ -11118,10 +11080,10 @@
         <v>0.75</v>
       </c>
       <c r="G30" s="85"/>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="145"/>
+      <c r="I30" s="143"/>
       <c r="J30" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11130,8 +11092,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L30" s="146"/>
-      <c r="M30" s="147"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="145"/>
       <c r="N30" s="64"/>
       <c r="O30" s="48">
         <f t="shared" si="3"/>
@@ -11177,10 +11139,10 @@
         <v>0.75</v>
       </c>
       <c r="G31" s="85"/>
-      <c r="H31" s="144" t="s">
+      <c r="H31" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="145"/>
+      <c r="I31" s="143"/>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11189,8 +11151,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L31" s="146"/>
-      <c r="M31" s="147"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="145"/>
       <c r="N31" s="64"/>
       <c r="O31" s="48">
         <f t="shared" si="3"/>
@@ -11230,8 +11192,8 @@
       <c r="E32" s="86"/>
       <c r="F32" s="95"/>
       <c r="G32" s="85"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="145"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
       <c r="J32" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11240,10 +11202,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="146" t="s">
+      <c r="L32" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="147"/>
+      <c r="M32" s="145"/>
       <c r="N32" s="64"/>
       <c r="O32" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11283,8 +11245,8 @@
       <c r="E33" s="86"/>
       <c r="F33" s="95"/>
       <c r="G33" s="85"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="145"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
       <c r="J33" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11293,8 +11255,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L33" s="146"/>
-      <c r="M33" s="147"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="145"/>
       <c r="N33" s="64"/>
       <c r="O33" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11334,8 +11296,8 @@
       <c r="E34" s="86"/>
       <c r="F34" s="95"/>
       <c r="G34" s="85"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="145"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
       <c r="J34" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11344,8 +11306,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L34" s="146"/>
-      <c r="M34" s="147"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="145"/>
       <c r="N34" s="64"/>
       <c r="O34" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11391,10 +11353,10 @@
         <v>0.75</v>
       </c>
       <c r="G35" s="85"/>
-      <c r="H35" s="144" t="s">
+      <c r="H35" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="145"/>
+      <c r="I35" s="143"/>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11403,8 +11365,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L35" s="146"/>
-      <c r="M35" s="147"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="145"/>
       <c r="N35" s="64"/>
       <c r="O35" s="48">
         <f t="shared" si="3"/>
@@ -11450,10 +11412,10 @@
         <v>0.75</v>
       </c>
       <c r="G36" s="85"/>
-      <c r="H36" s="144" t="s">
+      <c r="H36" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="145"/>
+      <c r="I36" s="143"/>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11462,8 +11424,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L36" s="146"/>
-      <c r="M36" s="147"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="145"/>
       <c r="N36" s="64"/>
       <c r="O36" s="48">
         <f t="shared" si="3"/>
@@ -11509,10 +11471,10 @@
         <v>0.75</v>
       </c>
       <c r="G37" s="85"/>
-      <c r="H37" s="144" t="s">
+      <c r="H37" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="145"/>
+      <c r="I37" s="143"/>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11521,8 +11483,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L37" s="146"/>
-      <c r="M37" s="147"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="145"/>
       <c r="N37" s="64"/>
       <c r="O37" s="48">
         <f t="shared" si="3"/>
@@ -11568,10 +11530,10 @@
         <v>0.75</v>
       </c>
       <c r="G38" s="85"/>
-      <c r="H38" s="144" t="s">
+      <c r="H38" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="145"/>
+      <c r="I38" s="143"/>
       <c r="J38" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11580,8 +11542,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L38" s="146"/>
-      <c r="M38" s="147"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="145"/>
       <c r="N38" s="64"/>
       <c r="O38" s="48">
         <f t="shared" si="3"/>
@@ -11627,10 +11589,10 @@
         <v>0.75</v>
       </c>
       <c r="G39" s="85"/>
-      <c r="H39" s="144" t="s">
+      <c r="H39" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="145"/>
+      <c r="I39" s="143"/>
       <c r="J39" s="46">
         <f>IF(F39="","",R39+S39-T39-U39-V39-W39)</f>
         <v>3</v>
@@ -11639,8 +11601,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L39" s="146"/>
-      <c r="M39" s="147"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="145"/>
       <c r="N39" s="64"/>
       <c r="O39" s="48">
         <f t="shared" si="3"/>
@@ -11680,8 +11642,8 @@
       <c r="E40" s="86"/>
       <c r="F40" s="95"/>
       <c r="G40" s="85"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="145"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="143"/>
       <c r="J40" s="46" t="str">
         <f>IF(F40="","",R40+S40-T40-U40-V40-W40)</f>
         <v/>
@@ -11690,8 +11652,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L40" s="146"/>
-      <c r="M40" s="147"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="145"/>
       <c r="N40" s="64"/>
       <c r="O40" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11731,8 +11693,8 @@
       <c r="E41" s="86"/>
       <c r="F41" s="95"/>
       <c r="G41" s="85"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="145"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="143"/>
       <c r="J41" s="46" t="str">
         <f>IF(F41="","",R41+S41-T41-U41-V41-W41)</f>
         <v/>
@@ -11741,8 +11703,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L41" s="146"/>
-      <c r="M41" s="147"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="145"/>
       <c r="N41" s="64"/>
       <c r="O41" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11792,8 +11754,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L42" s="148"/>
-      <c r="M42" s="149"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="141"/>
       <c r="N42" s="71"/>
       <c r="O42" s="55"/>
       <c r="P42" s="55"/>
@@ -15493,67 +15455,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T3:V3"/>
@@ -15562,6 +15463,67 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:M41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="C12:C41">
